--- a/data/trans_orig/P16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>282786</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257901</v>
+        <v>257976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>307749</v>
+        <v>310115</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4080641971937418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3721552435967089</v>
+        <v>0.3722626532182768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4440856652145103</v>
+        <v>0.4474999770449946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>402</v>
@@ -765,19 +765,19 @@
         <v>394160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366270</v>
+        <v>365013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>418079</v>
+        <v>418931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5726155313417564</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5320972880713626</v>
+        <v>0.5302710538037326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6073624780716618</v>
+        <v>0.6086011006041798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>687</v>
@@ -786,19 +786,19 @@
         <v>676947</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>640021</v>
+        <v>639277</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>714076</v>
+        <v>715100</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4900633222370886</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4633318121784256</v>
+        <v>0.4627930598249399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5169428229406534</v>
+        <v>0.5176841164636951</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>410208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385245</v>
+        <v>382879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435093</v>
+        <v>435018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5919358028062581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5559143347854898</v>
+        <v>0.5525000229550054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6278447564032912</v>
+        <v>0.6277373467817232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -836,19 +836,19 @@
         <v>294191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270272</v>
+        <v>269420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>322081</v>
+        <v>323338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4273844686582436</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.392637521928338</v>
+        <v>0.39139889939582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4679027119286371</v>
+        <v>0.469728946196267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -857,19 +857,19 @@
         <v>704398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667269</v>
+        <v>666245</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>741324</v>
+        <v>742068</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5099366777629114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4830571770593465</v>
+        <v>0.4823158835363048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5366681878215744</v>
+        <v>0.53720694017506</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>397525</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366283</v>
+        <v>366433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>430005</v>
+        <v>429679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4133139473894891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3808303921488223</v>
+        <v>0.3809866192737625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4470831856743364</v>
+        <v>0.4467442316918558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>536</v>
@@ -982,19 +982,19 @@
         <v>573464</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>541466</v>
+        <v>543719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>604668</v>
+        <v>604820</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5921811141454961</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5591383016162227</v>
+        <v>0.5614647954961687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.624403969631855</v>
+        <v>0.624560005753346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>917</v>
@@ -1003,19 +1003,19 @@
         <v>970989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>926678</v>
+        <v>924240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1017557</v>
+        <v>1016279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5030530133408002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4800959913029541</v>
+        <v>0.4788331816136217</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5271790395652</v>
+        <v>0.5265165437497787</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>564275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>531795</v>
+        <v>532121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>595517</v>
+        <v>595367</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.586686052610511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5529168143256634</v>
+        <v>0.553255768308144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6191696078511777</v>
+        <v>0.6190133807262373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -1053,19 +1053,19 @@
         <v>394929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363725</v>
+        <v>363573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>426927</v>
+        <v>424674</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4078188858545039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3755960303681447</v>
+        <v>0.3754399942466544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4408616983837772</v>
+        <v>0.4385352045038317</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>887</v>
@@ -1074,19 +1074,19 @@
         <v>959204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>912636</v>
+        <v>913914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003515</v>
+        <v>1005953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4969469866591998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4728209604347999</v>
+        <v>0.4734834562502213</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5199040086970457</v>
+        <v>0.5211668183863782</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>264225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>239359</v>
+        <v>239661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291299</v>
+        <v>290331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3894199349023399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3527713587836677</v>
+        <v>0.3532176595205554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4293228042894418</v>
+        <v>0.4278958075672011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>404</v>
@@ -1199,19 +1199,19 @@
         <v>395785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>370625</v>
+        <v>370528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>420175</v>
+        <v>420645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5787680664167471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5419751866256101</v>
+        <v>0.5418335814784561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6144342317970283</v>
+        <v>0.6151204281844864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>660</v>
@@ -1220,19 +1220,19 @@
         <v>660010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>625132</v>
+        <v>620816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>697639</v>
+        <v>697357</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4844645468555441</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4588630273887989</v>
+        <v>0.4556946068683767</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5120850527082408</v>
+        <v>0.5118782688375969</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>414284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387210</v>
+        <v>388178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439150</v>
+        <v>438848</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6105800650976601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5706771957105581</v>
+        <v>0.5721041924327989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6472286412163322</v>
+        <v>0.6467823404794445</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -1270,19 +1270,19 @@
         <v>288056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>263666</v>
+        <v>263196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313216</v>
+        <v>313313</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.421231933583253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3855657682029717</v>
+        <v>0.3848795718155136</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.45802481337439</v>
+        <v>0.458166418521544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>677</v>
@@ -1291,19 +1291,19 @@
         <v>702340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>664711</v>
+        <v>664993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>737218</v>
+        <v>741534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5155354531444559</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4879149472917594</v>
+        <v>0.4881217311624031</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5411369726112012</v>
+        <v>0.5443053931316234</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>383326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>357131</v>
+        <v>353211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>412303</v>
+        <v>412878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4068323969940683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3790305765269699</v>
+        <v>0.3748706295179599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4375861368240204</v>
+        <v>0.4381960868452951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>591</v>
@@ -1416,19 +1416,19 @@
         <v>616065</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>584552</v>
+        <v>582471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>647034</v>
+        <v>645998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5931622748877532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5628207797063881</v>
+        <v>0.5608169075959086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.622979610372466</v>
+        <v>0.6219819113342069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1004</v>
@@ -1437,19 +1437,19 @@
         <v>999392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>956513</v>
+        <v>954773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1044752</v>
+        <v>1043609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5045308603588063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4828840054440618</v>
+        <v>0.4820053804260673</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5274303252602854</v>
+        <v>0.5268532199620491</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>558896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>529919</v>
+        <v>529344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>585091</v>
+        <v>589011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5931676030059317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5624138631759795</v>
+        <v>0.5618039131547049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6209694234730301</v>
+        <v>0.62512937048204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>406</v>
@@ -1487,19 +1487,19 @@
         <v>422547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391578</v>
+        <v>392614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>454060</v>
+        <v>456141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4068377251122468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3770203896275341</v>
+        <v>0.3780180886657931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4371792202936118</v>
+        <v>0.4391830924040912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>987</v>
@@ -1508,19 +1508,19 @@
         <v>981442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936082</v>
+        <v>937225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1024321</v>
+        <v>1026061</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4954691396411936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4725696747397142</v>
+        <v>0.4731467800379509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5171159945559379</v>
+        <v>0.5179946195739328</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1327863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4053892920892231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1933</v>
@@ -1633,19 +1633,19 @@
         <v>1979475</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5857827492728864</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3268</v>
@@ -1654,19 +1654,19 @@
         <v>3307338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4969911716007554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1947662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1888105</v>
+        <v>1889619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2000484</v>
+        <v>2003545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5946107079107769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5764280765518651</v>
+        <v>0.5768902817683609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6107370359985489</v>
+        <v>0.6116714715253065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1364</v>
@@ -1704,19 +1704,19 @@
         <v>1399722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1345392</v>
+        <v>1338860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1458900</v>
+        <v>1451249</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4142172507271136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3981394188716563</v>
+        <v>0.3962065080780691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4317298758458132</v>
+        <v>0.4294655193039845</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3242</v>
@@ -1725,19 +1725,19 @@
         <v>3347384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3263722</v>
+        <v>3254937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3425426</v>
+        <v>3421371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5030088283992445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4904370654196679</v>
+        <v>0.4891169635609396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5147361879980287</v>
+        <v>0.5141267743735863</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>366604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>339875</v>
+        <v>340420</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393882</v>
+        <v>393510</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.522541657225662</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.484442242702275</v>
+        <v>0.4852203097331741</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5614222187328084</v>
+        <v>0.560891981994272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>448</v>
@@ -2090,19 +2090,19 @@
         <v>478725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>451946</v>
+        <v>450807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>502789</v>
+        <v>501923</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6867865206779128</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6483699719521951</v>
+        <v>0.6467353907086222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7213094168537674</v>
+        <v>0.7200679421516012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>791</v>
@@ -2111,19 +2111,19 @@
         <v>845329</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>806924</v>
+        <v>808794</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>880254</v>
+        <v>883197</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6043981889886236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.57693961988316</v>
+        <v>0.5782761482164684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6293690503191979</v>
+        <v>0.6314731910399944</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>334975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307697</v>
+        <v>308069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361704</v>
+        <v>361159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.477458342774338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4385777812671917</v>
+        <v>0.4391080180057279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5155577572977249</v>
+        <v>0.5147796902668256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>202</v>
@@ -2161,19 +2161,19 @@
         <v>218325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>194261</v>
+        <v>195127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245104</v>
+        <v>246243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3132134793220873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2786905831462326</v>
+        <v>0.2799320578483988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3516300280478049</v>
+        <v>0.3532646092913778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -2182,19 +2182,19 @@
         <v>553300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518375</v>
+        <v>515432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>591705</v>
+        <v>589835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3956018110113764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3706309496808021</v>
+        <v>0.3685268089600056</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.42306038011684</v>
+        <v>0.4217238517835316</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>509319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>476718</v>
+        <v>475584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>541889</v>
+        <v>544882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5003390701449421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4683132570002698</v>
+        <v>0.4671990381485006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5323347652076776</v>
+        <v>0.5352756646962943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>663</v>
@@ -2307,19 +2307,19 @@
         <v>731230</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>700766</v>
+        <v>701208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>760373</v>
+        <v>760954</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7091402119325763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6795966317935032</v>
+        <v>0.6800250833453956</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7374027882653604</v>
+        <v>0.7379664277998346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1129</v>
@@ -2328,19 +2328,19 @@
         <v>1240549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1193664</v>
+        <v>1196345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1287996</v>
+        <v>1287747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6054123101856836</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.582531499193169</v>
+        <v>0.5838400010211622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6285673766152556</v>
+        <v>0.6284460901283289</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>508628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476058</v>
+        <v>473065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541229</v>
+        <v>542363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.499660929855058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4676652347923224</v>
+        <v>0.4647243353037059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5316867429997303</v>
+        <v>0.5328009618514998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>276</v>
@@ -2378,19 +2378,19 @@
         <v>299920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>270777</v>
+        <v>270196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330384</v>
+        <v>329942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2908597880674237</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2625972117346396</v>
+        <v>0.2620335722001654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3204033682064968</v>
+        <v>0.3199749166546043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>746</v>
@@ -2399,19 +2399,19 @@
         <v>808548</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>761101</v>
+        <v>761350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>855433</v>
+        <v>852752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3945876898143164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3714326233847444</v>
+        <v>0.3715539098716711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4174685008068309</v>
+        <v>0.4161599989788379</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>360487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>332671</v>
+        <v>332288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>387264</v>
+        <v>390993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4764955436933271</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4397285372966864</v>
+        <v>0.4392224595525372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5118903249411675</v>
+        <v>0.5168183360201919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>474</v>
@@ -2524,19 +2524,19 @@
         <v>526357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>498555</v>
+        <v>497576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>551115</v>
+        <v>551776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6780484034291545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6422337636434363</v>
+        <v>0.6409726366682724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.709941014206751</v>
+        <v>0.7107920957448646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>794</v>
@@ -2545,19 +2545,19 @@
         <v>886844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>844851</v>
+        <v>847429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>925734</v>
+        <v>926710</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5785701605334681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5511741307590043</v>
+        <v>0.5528554876073886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6039410426945047</v>
+        <v>0.6045780169184582</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>396051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>369274</v>
+        <v>365545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>423867</v>
+        <v>424250</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.523504456306673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4881096750588326</v>
+        <v>0.4831816639798081</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5602714627033136</v>
+        <v>0.5607775404474629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -2595,19 +2595,19 @@
         <v>249926</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225168</v>
+        <v>224507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277728</v>
+        <v>278707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3219515965708455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2900589857932491</v>
+        <v>0.2892079042551354</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3577662363565638</v>
+        <v>0.3590273633317275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>598</v>
@@ -2616,19 +2616,19 @@
         <v>645977</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607087</v>
+        <v>606111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687970</v>
+        <v>685392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4214298394665318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3960589573054955</v>
+        <v>0.3954219830815419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4488258692409957</v>
+        <v>0.4471445123926119</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>488813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>455894</v>
+        <v>453139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>518523</v>
+        <v>520592</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5167540106575131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.481953483110621</v>
+        <v>0.4790406391816539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5481619320353667</v>
+        <v>0.5503490070101814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>726</v>
@@ -2741,19 +2741,19 @@
         <v>760458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>729368</v>
+        <v>727981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>789655</v>
+        <v>787931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7236087025727914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6940256835432799</v>
+        <v>0.6927055442851381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7513910428289833</v>
+        <v>0.7497507509419663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1183</v>
@@ -2762,19 +2762,19 @@
         <v>1249271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1206966</v>
+        <v>1208720</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1292468</v>
+        <v>1293436</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6256195227099853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6044332303988984</v>
+        <v>0.6053118798027559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6472515579786348</v>
+        <v>0.6477367608570939</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>457117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427407</v>
+        <v>425338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490036</v>
+        <v>492791</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4832459893424869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4518380679646334</v>
+        <v>0.4496509929898186</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.518046516889379</v>
+        <v>0.5209593608183463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>276</v>
@@ -2812,19 +2812,19 @@
         <v>290466</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>261269</v>
+        <v>262993</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321556</v>
+        <v>322943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2763912974272086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2486089571710168</v>
+        <v>0.2502492490580333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3059743164567202</v>
+        <v>0.3072944557148616</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -2833,19 +2833,19 @@
         <v>747584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>704387</v>
+        <v>703419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>789889</v>
+        <v>788135</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3743804772900147</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3527484420213653</v>
+        <v>0.3522632391429061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3955667696011015</v>
+        <v>0.3946881201972441</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1725223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5041572306352069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2311</v>
@@ -2958,19 +2958,19 @@
         <v>2496770</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7022458102440358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3897</v>
@@ -2979,19 +2979,19 @@
         <v>4221993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6050953259057548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1696771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1634877</v>
+        <v>1639667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1750989</v>
+        <v>1763029</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.495842769364793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4777555163299904</v>
+        <v>0.4791555348797992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5116867019551398</v>
+        <v>0.5152051031145085</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>984</v>
@@ -3029,19 +3029,19 @@
         <v>1058637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>999261</v>
+        <v>1001845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1116908</v>
+        <v>1114027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2977541897559643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.281053811273762</v>
+        <v>0.2817807314731526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3141434912577243</v>
+        <v>0.3133332726286807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2602</v>
@@ -3050,19 +3050,19 @@
         <v>2755408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2677394</v>
+        <v>2673468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2846294</v>
+        <v>2836392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3949046740942453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3837236610678611</v>
+        <v>0.3831610145237075</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4079303723176761</v>
+        <v>0.4065113173288943</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>338853</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>313592</v>
+        <v>312544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>366378</v>
+        <v>363195</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5021532140745933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4647178663077191</v>
+        <v>0.4631654579624281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5429429277071144</v>
+        <v>0.5382265701607475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>440</v>
@@ -3415,19 +3415,19 @@
         <v>455246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>430282</v>
+        <v>432551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>478390</v>
+        <v>479733</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6766047097125177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6395025366494963</v>
+        <v>0.6428739239771495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7110018850033133</v>
+        <v>0.7129974788338892</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>770</v>
@@ -3436,19 +3436,19 @@
         <v>794099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>753612</v>
+        <v>758486</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>827784</v>
+        <v>830941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5892520363135855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5592091129479206</v>
+        <v>0.5628257673758152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6142476104688924</v>
+        <v>0.6165903260837112</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>335947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308422</v>
+        <v>311605</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361208</v>
+        <v>362256</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4978467859254067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4570570722928856</v>
+        <v>0.4617734298392528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5352821336922813</v>
+        <v>0.536834542037572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -3486,19 +3486,19 @@
         <v>217593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>194449</v>
+        <v>193106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242557</v>
+        <v>240288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3233952902874823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2889981149966867</v>
+        <v>0.2870025211661109</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3604974633505036</v>
+        <v>0.3571260760228505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -3507,19 +3507,19 @@
         <v>553540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>519855</v>
+        <v>516698</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>594027</v>
+        <v>589153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4107479636864146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3857523895311077</v>
+        <v>0.3834096739162889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.44079088705208</v>
+        <v>0.4371742326241849</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>500266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>467675</v>
+        <v>469125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>533426</v>
+        <v>535169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4892903970995418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4574144343731007</v>
+        <v>0.4588330781383947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5217229663837616</v>
+        <v>0.5234275857916153</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>622</v>
@@ -3632,19 +3632,19 @@
         <v>681344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>647376</v>
+        <v>646691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>709901</v>
+        <v>709383</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6533087448335886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6207384254936357</v>
+        <v>0.6200818901238362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6806902493174082</v>
+        <v>0.6801941131251649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1089</v>
@@ -3653,19 +3653,19 @@
         <v>1181610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1135889</v>
+        <v>1134247</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1227952</v>
+        <v>1228179</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5721128556972771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5499756909014288</v>
+        <v>0.5491809096545613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.594550702929346</v>
+        <v>0.5946606128880026</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>522165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489005</v>
+        <v>487262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>554756</v>
+        <v>553306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5107096029004582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4782770336162386</v>
+        <v>0.4765724142083846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5425855656268994</v>
+        <v>0.5411669218616053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>355</v>
@@ -3703,19 +3703,19 @@
         <v>361569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333012</v>
+        <v>333530</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395537</v>
+        <v>396222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3466912551664114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3193097506825918</v>
+        <v>0.319805886874836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3792615745063647</v>
+        <v>0.3799181098761639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>839</v>
@@ -3724,19 +3724,19 @@
         <v>883734</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>837392</v>
+        <v>837165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>929455</v>
+        <v>931097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4278871443027229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.405449297070654</v>
+        <v>0.4053393871119973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4500243090985712</v>
+        <v>0.4508190903454387</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>352576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>324830</v>
+        <v>324310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>383191</v>
+        <v>381734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4641897207603485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4276599164136288</v>
+        <v>0.4269752890616257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5044954992619362</v>
+        <v>0.5025778891543634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>439</v>
@@ -3849,19 +3849,19 @@
         <v>481015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>454418</v>
+        <v>452637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>507912</v>
+        <v>507665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6127487492132917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5788686586588215</v>
+        <v>0.5765996665419387</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6470129952829556</v>
+        <v>0.6466974814102959</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>765</v>
@@ -3870,19 +3870,19 @@
         <v>833591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>794915</v>
+        <v>793815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>873553</v>
+        <v>872808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5396935648639026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5146533666967342</v>
+        <v>0.5139412248678662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5655664364874783</v>
+        <v>0.5650840519277787</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>406976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376361</v>
+        <v>377818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>434722</v>
+        <v>435242</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5358102792396515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4955045007380639</v>
+        <v>0.4974221108456366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5723400835863711</v>
+        <v>0.5730247109383743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -3920,19 +3920,19 @@
         <v>303996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277099</v>
+        <v>277346</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330593</v>
+        <v>332374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3872512507867083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3529870047170443</v>
+        <v>0.3533025185897041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4211313413411784</v>
+        <v>0.4234003334580612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>667</v>
@@ -3941,19 +3941,19 @@
         <v>710972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671010</v>
+        <v>671755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>749648</v>
+        <v>750748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4603064351360974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4344335635125218</v>
+        <v>0.4349159480722212</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4853466333032657</v>
+        <v>0.4860587751321336</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>498294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>468371</v>
+        <v>466426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>526345</v>
+        <v>528960</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5314752650455025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4995595160326162</v>
+        <v>0.4974854482664139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5613941409723278</v>
+        <v>0.5641839730485697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>610</v>
@@ -4066,19 +4066,19 @@
         <v>681012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>649391</v>
+        <v>652566</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>711726</v>
+        <v>714626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.652448385456181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6221536520787391</v>
+        <v>0.6251958965497951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6818740048601797</v>
+        <v>0.6846526331880983</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1108</v>
@@ -4087,19 +4087,19 @@
         <v>1179306</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1136212</v>
+        <v>1136665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1227078</v>
+        <v>1223555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5952042671633717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5734546101368748</v>
+        <v>0.5736834927388773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6193154668225074</v>
+        <v>0.6175371650266577</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>439273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>411222</v>
+        <v>408607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>469196</v>
+        <v>471141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4685247349544975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4386058590276722</v>
+        <v>0.4358160269514303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5004404839673838</v>
+        <v>0.5025145517335861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -4137,19 +4137,19 @@
         <v>362767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332053</v>
+        <v>329153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394388</v>
+        <v>391213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.347551614543819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3181259951398204</v>
+        <v>0.3153473668119016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3778463479212609</v>
+        <v>0.3748041034502049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>783</v>
@@ -4158,19 +4158,19 @@
         <v>802040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>754268</v>
+        <v>757791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>845134</v>
+        <v>844681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4047957328366283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3806845331774927</v>
+        <v>0.3824628349733424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4265453898631252</v>
+        <v>0.4263165072611225</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1689989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.497882819009114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2111</v>
@@ -4283,19 +4283,19 @@
         <v>2298617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6484946858528446</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3732</v>
@@ -4304,19 +4304,19 @@
         <v>3988605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5748187421006086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1704361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1650401</v>
+        <v>1643179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1760980</v>
+        <v>1763599</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5021171809908861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.486219995515039</v>
+        <v>0.484092326197444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5187973257740871</v>
+        <v>0.5195690091325734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1227</v>
@@ -4354,19 +4354,19 @@
         <v>1245925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1186258</v>
+        <v>1185038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1307381</v>
+        <v>1303565</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3515053141471553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3346716797048295</v>
+        <v>0.3343276003148656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3688433646612644</v>
+        <v>0.3677669030365108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2837</v>
@@ -4375,19 +4375,19 @@
         <v>2950287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2873434</v>
+        <v>2860946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3039544</v>
+        <v>3037627</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4251812578993914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4141056223340086</v>
+        <v>0.4123059284890368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4380445675404771</v>
+        <v>0.4377682529307017</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>380360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352200</v>
+        <v>350868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>409346</v>
+        <v>408382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5506800406887488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5099104038612053</v>
+        <v>0.507981237588859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5926452317527473</v>
+        <v>0.5912499249526013</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>856</v>
@@ -4740,19 +4740,19 @@
         <v>466792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>444197</v>
+        <v>443357</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>488713</v>
+        <v>488615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6367262653324186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6059057330669632</v>
+        <v>0.6047592778629836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6666273206115751</v>
+        <v>0.6664937282956689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1309</v>
@@ -4761,19 +4761,19 @@
         <v>847153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>809320</v>
+        <v>809142</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>884195</v>
+        <v>886744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.594984447162732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5684131111782883</v>
+        <v>0.5682883117956272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6210002962148112</v>
+        <v>0.6227908212891328</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>310350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281364</v>
+        <v>282328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338510</v>
+        <v>339842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4493199593112512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4073547682472527</v>
+        <v>0.4087500750473986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.490089596138795</v>
+        <v>0.4920187624111409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -4811,19 +4811,19 @@
         <v>266321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244400</v>
+        <v>244498</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288916</v>
+        <v>289756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3632737346675813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3333726793884248</v>
+        <v>0.3335062717043311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3940942669330368</v>
+        <v>0.3952407221370167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>660</v>
@@ -4832,19 +4832,19 @@
         <v>576670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>539628</v>
+        <v>537079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614503</v>
+        <v>614681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4050155528372681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3789997037851889</v>
+        <v>0.3772091787108668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4315868888217118</v>
+        <v>0.4317116882043723</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>489565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>452461</v>
+        <v>452247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>522751</v>
+        <v>525933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4667333996600533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4313598596714937</v>
+        <v>0.4311560257415908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4983722131763109</v>
+        <v>0.5014056101666273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1036</v>
@@ -4957,19 +4957,19 @@
         <v>675627</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>645611</v>
+        <v>645666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>703647</v>
+        <v>703829</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6309325693667739</v>
+        <v>0.630932569366774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6029029007299299</v>
+        <v>0.6029538225491502</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6570994164969205</v>
+        <v>0.6572692774626894</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1549</v>
@@ -4978,19 +4978,19 @@
         <v>1165191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1119671</v>
+        <v>1117942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1214011</v>
+        <v>1211385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5496819956764341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5282077806374411</v>
+        <v>0.527392315456608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.572712952658655</v>
+        <v>0.5714740677824309</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>559352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>526166</v>
+        <v>522984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>596456</v>
+        <v>596670</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5332666003399467</v>
+        <v>0.5332666003399468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.501627786823689</v>
+        <v>0.4985943898333726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5686401403285063</v>
+        <v>0.5688439742584089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -5028,19 +5028,19 @@
         <v>395211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367191</v>
+        <v>367009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>425227</v>
+        <v>425172</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3690674306332262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3429005835030796</v>
+        <v>0.3427307225373108</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3970970992700704</v>
+        <v>0.3970461774508498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>931</v>
@@ -5049,19 +5049,19 @@
         <v>954564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>905744</v>
+        <v>908370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1000084</v>
+        <v>1001813</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4503180043235661</v>
+        <v>0.450318004323566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.427287047341345</v>
+        <v>0.428525932217569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4717922193625591</v>
+        <v>0.472607684543392</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>426926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>393366</v>
+        <v>391719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>462354</v>
+        <v>460399</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5316150489475315</v>
+        <v>0.5316150489475314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4898254084120428</v>
+        <v>0.4877756836538539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5757314109644712</v>
+        <v>0.5732971452767553</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>683</v>
@@ -5174,19 +5174,19 @@
         <v>490464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>463638</v>
+        <v>464085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>516388</v>
+        <v>518162</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6038272099359071</v>
+        <v>0.603827209935907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5708006866398355</v>
+        <v>0.5713514794511242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.635742499119424</v>
+        <v>0.6379274109043445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1085</v>
@@ -5195,19 +5195,19 @@
         <v>917390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>875271</v>
+        <v>872573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>959684</v>
+        <v>959245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5679264490989783</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5418523331946659</v>
+        <v>0.5401819329193389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5941093260576177</v>
+        <v>0.5938377072487059</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>376147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340719</v>
+        <v>342674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>409707</v>
+        <v>411354</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4683849510524685</v>
+        <v>0.4683849510524686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4242685890355287</v>
+        <v>0.4267028547232448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5101745915879572</v>
+        <v>0.5122243163461462</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>364</v>
@@ -5245,19 +5245,19 @@
         <v>321795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295871</v>
+        <v>294097</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348621</v>
+        <v>348174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3961727900640929</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3642575008805765</v>
+        <v>0.3620725890956555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4291993133601646</v>
+        <v>0.4286485205488758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>638</v>
@@ -5266,19 +5266,19 @@
         <v>697942</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>655648</v>
+        <v>656087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>740061</v>
+        <v>742759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4320735509010217</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4058906739423825</v>
+        <v>0.4061622927512941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4581476668053342</v>
+        <v>0.4598180670806611</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>548448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>513803</v>
+        <v>511792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>583451</v>
+        <v>582873</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5539528431801978</v>
+        <v>0.5539528431801979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5189602069836075</v>
+        <v>0.5169292832602612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5893070839582328</v>
+        <v>0.5887235740845793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1092</v>
@@ -5391,19 +5391,19 @@
         <v>731693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>703192</v>
+        <v>702048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>759358</v>
+        <v>760264</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6550339131458287</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6295185936292612</v>
+        <v>0.628494692541631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.679800684107032</v>
+        <v>0.6806110672068113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1712</v>
@@ -5412,19 +5412,19 @@
         <v>1280141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1236802</v>
+        <v>1233343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1322018</v>
+        <v>1322534</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6075388317663416</v>
+        <v>0.6075388317663418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5869707347182614</v>
+        <v>0.5853290119846551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6274132966523747</v>
+        <v>0.6276580270494437</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>441614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>406611</v>
+        <v>407189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476259</v>
+        <v>478270</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4460471568198021</v>
+        <v>0.4460471568198022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4106929160417678</v>
+        <v>0.4112764259154207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4810397930163928</v>
+        <v>0.4830707167397389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -5462,19 +5462,19 @@
         <v>385338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357673</v>
+        <v>356767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413839</v>
+        <v>414983</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3449660868541713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3201993158929685</v>
+        <v>0.3193889327931886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3704814063707392</v>
+        <v>0.3715053074583688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>853</v>
@@ -5483,19 +5483,19 @@
         <v>826952</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>785075</v>
+        <v>784559</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>870291</v>
+        <v>873750</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3924611682336583</v>
+        <v>0.3924611682336585</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3725867033476256</v>
+        <v>0.3723419729505563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4130292652817388</v>
+        <v>0.4146709880153449</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1845298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5223386540422841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3667</v>
@@ -5608,19 +5608,19 @@
         <v>2364576</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6333842766539352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5655</v>
@@ -5629,19 +5629,19 @@
         <v>4209874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5793934134624155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1687464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1619928</v>
+        <v>1620207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1755069</v>
+        <v>1756562</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4776613459577161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4585444731422851</v>
+        <v>0.4586233083896247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.496797854617459</v>
+        <v>0.4972206733148329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1694</v>
@@ -5679,19 +5679,19 @@
         <v>1368665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1311829</v>
+        <v>1319287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1420999</v>
+        <v>1424736</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3666157233460649</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3513914358942516</v>
+        <v>0.3533891888744914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3806340956376781</v>
+        <v>0.3816352054234916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3082</v>
@@ -5700,19 +5700,19 @@
         <v>3056129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2967606</v>
+        <v>2969509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3139089</v>
+        <v>3138631</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4206065865375846</v>
+        <v>0.4206065865375845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4084234920889331</v>
+        <v>0.4086852858488855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4320242332073758</v>
+        <v>0.4319611554716074</v>
       </c>
     </row>
     <row r="18">
